--- a/120611_Gruppe2.xlsx
+++ b/120611_Gruppe2.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>GFP anteil</t>
+  </si>
+  <si>
+    <t>GFP menge</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -690,11 +692,11 @@
           </c:bubbleSize>
         </c:ser>
         <c:bubbleScale val="50"/>
-        <c:axId val="88441600"/>
-        <c:axId val="88443136"/>
+        <c:axId val="68065920"/>
+        <c:axId val="68067712"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="88441600"/>
+        <c:axId val="68065920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,12 +704,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="88443136"/>
+        <c:crossAx val="68067712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88443136"/>
+        <c:axId val="68067712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +717,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="88441600"/>
+        <c:crossAx val="68065920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -724,7 +726,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -741,8 +743,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.1502187226596671E-2"/>
-          <c:y val="4.214129483814525E-2"/>
-          <c:w val="0.58638670166229201"/>
+          <c:y val="4.2141294838145271E-2"/>
+          <c:w val="0.58638670166229179"/>
           <c:h val="0.79822506561679785"/>
         </c:manualLayout>
       </c:layout>
@@ -761,7 +763,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -814,23 +815,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88462464"/>
-        <c:axId val="88464000"/>
+        <c:axId val="68094976"/>
+        <c:axId val="68096768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88462464"/>
+        <c:axId val="68094976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88464000"/>
+        <c:crossAx val="68096768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88464000"/>
+        <c:axId val="68096768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,20 +839,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88462464"/>
+        <c:crossAx val="68094976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K49" workbookViewId="0">
-      <selection activeCell="AA64" sqref="AA64:AA66"/>
+    <sheetView tabSelected="1" topLeftCell="L49" workbookViewId="0">
+      <selection activeCell="AC66" sqref="AC66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1428,7 +1428,7 @@
         <v>0.80649999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:29">
       <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:29">
       <c r="A50" s="3" t="s">
         <v>40</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:29">
       <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>87.154985509208075</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:29">
       <c r="A52" s="3" t="s">
         <v>42</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>32.383086997895191</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:29">
       <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:29">
       <c r="A54" s="3" t="s">
         <v>44</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>62.095924728382869</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:29">
       <c r="A55" s="3" t="s">
         <v>45</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>19.613420291871705</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:29">
       <c r="A56" s="3" t="s">
         <v>46</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:29">
       <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:29">
       <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:29">
       <c r="A59" s="3" t="s">
         <v>49</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:29">
       <c r="A60" s="3" t="s">
         <v>50</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:29">
       <c r="A61" s="3" t="s">
         <v>51</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:29">
       <c r="A62" s="3" t="s">
         <v>52</v>
       </c>
@@ -1938,8 +1938,11 @@
       <c r="AA62" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AC62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
       <c r="A63" s="3" t="s">
         <v>53</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:29">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -2052,6 +2055,10 @@
         <f>100/Y64</f>
         <v>24.948605779351041</v>
       </c>
+      <c r="AC64">
+        <f>T64/100*AA64</f>
+        <v>2.3433810267572297</v>
+      </c>
     </row>
     <row r="65" spans="1:43">
       <c r="A65" s="3" t="s">
@@ -2116,6 +2123,10 @@
         <f t="shared" ref="AA65:AA66" si="8">100/Y65</f>
         <v>15.598128654188526</v>
       </c>
+      <c r="AC65">
+        <f t="shared" ref="AC65:AC66" si="9">T65/100*AA65</f>
+        <v>5.5972651565783806</v>
+      </c>
     </row>
     <row r="66" spans="1:43">
       <c r="A66" s="3" t="s">
@@ -2180,6 +2191,10 @@
         <f t="shared" si="8"/>
         <v>17.959068069367362</v>
       </c>
+      <c r="AC66">
+        <f t="shared" si="9"/>
+        <v>12.39773564036537</v>
+      </c>
     </row>
     <row r="67" spans="1:43">
       <c r="A67" s="3" t="s">
@@ -2785,7 +2800,7 @@
         <v>87</v>
       </c>
       <c r="AQ75">
-        <f t="shared" ref="AQ75:AQ79" si="9">MAX(K75:AO75)</f>
+        <f t="shared" ref="AQ75:AQ79" si="10">MAX(K75:AO75)</f>
         <v>2181</v>
       </c>
     </row>
@@ -2908,7 +2923,7 @@
         <v>41</v>
       </c>
       <c r="AQ76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1016</v>
       </c>
     </row>
@@ -3031,7 +3046,7 @@
         <v>1485</v>
       </c>
       <c r="AQ77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37292</v>
       </c>
     </row>
@@ -3154,7 +3169,7 @@
         <v>403</v>
       </c>
       <c r="AQ78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10998</v>
       </c>
     </row>
@@ -3277,7 +3292,7 @@
         <v>198</v>
       </c>
       <c r="AQ79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5507</v>
       </c>
     </row>

--- a/120611_Gruppe2.xlsx
+++ b/120611_Gruppe2.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="113">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -430,6 +430,24 @@
   </si>
   <si>
     <t>GFP menge</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Anteil</t>
+  </si>
+  <si>
+    <t>pur fac</t>
   </si>
 </sst>
 </file>
@@ -692,11 +710,11 @@
           </c:bubbleSize>
         </c:ser>
         <c:bubbleScale val="50"/>
-        <c:axId val="68065920"/>
-        <c:axId val="68067712"/>
+        <c:axId val="79696640"/>
+        <c:axId val="79698176"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="68065920"/>
+        <c:axId val="79696640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -704,12 +722,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68067712"/>
+        <c:crossAx val="79698176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68067712"/>
+        <c:axId val="79698176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +735,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68065920"/>
+        <c:crossAx val="79696640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -726,7 +744,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -743,8 +761,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.1502187226596671E-2"/>
-          <c:y val="4.2141294838145271E-2"/>
-          <c:w val="0.58638670166229179"/>
+          <c:y val="4.2141294838145292E-2"/>
+          <c:w val="0.83659246297916467"/>
           <c:h val="0.79822506561679785"/>
         </c:manualLayout>
       </c:layout>
@@ -763,6 +781,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -815,43 +834,39 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68094976"/>
-        <c:axId val="68096768"/>
+        <c:axId val="79717504"/>
+        <c:axId val="79719040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68094976"/>
+        <c:axId val="79717504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68096768"/>
+        <c:crossAx val="79719040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68096768"/>
+        <c:axId val="79719040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68094976"/>
+        <c:crossAx val="79717504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -897,8 +912,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1209,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L49" workbookViewId="0">
-      <selection activeCell="AC66" sqref="AC66"/>
+    <sheetView tabSelected="1" topLeftCell="Y47" workbookViewId="0">
+      <selection activeCell="AL64" sqref="AL64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1428,7 +1443,7 @@
         <v>0.80649999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:39">
       <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
@@ -1451,7 +1466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:39">
       <c r="A50" s="3" t="s">
         <v>40</v>
       </c>
@@ -1487,7 +1502,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:39">
       <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
@@ -1540,7 +1555,7 @@
         <v>87.154985509208075</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:39">
       <c r="A52" s="3" t="s">
         <v>42</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>32.383086997895191</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:39">
       <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
@@ -1640,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:39">
       <c r="A54" s="3" t="s">
         <v>44</v>
       </c>
@@ -1690,7 +1705,7 @@
         <v>62.095924728382869</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:39">
       <c r="A55" s="3" t="s">
         <v>45</v>
       </c>
@@ -1739,7 +1754,7 @@
         <v>19.613420291871705</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:39">
       <c r="A56" s="3" t="s">
         <v>46</v>
       </c>
@@ -1764,8 +1779,11 @@
       <c r="H56">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:29">
+      <c r="AE56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39">
       <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
@@ -1790,8 +1808,12 @@
       <c r="H57">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:29">
+      <c r="AF57">
+        <f>(Y64-$AE$58)^2</f>
+        <v>1.7448323725897559</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39">
       <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
@@ -1816,8 +1838,24 @@
       <c r="H58">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:29">
+      <c r="AE58">
+        <f>AVERAGE(Y64:Y66)</f>
+        <v>5.3291610467975365</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" ref="AF58:AF59" si="5">(Y65-$AE$58)^2</f>
+        <v>1.17043061821443</v>
+      </c>
+      <c r="AG58">
+        <f>AVERAGE(AF57:AF59)</f>
+        <v>0.99080368520867257</v>
+      </c>
+      <c r="AH58">
+        <f>SQRT(AG58)</f>
+        <v>0.99539122218787557</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39">
       <c r="A59" s="3" t="s">
         <v>49</v>
       </c>
@@ -1842,8 +1880,12 @@
       <c r="H59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:29">
+      <c r="AF59">
+        <f t="shared" si="5"/>
+        <v>5.7148064821831907E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39">
       <c r="A60" s="3" t="s">
         <v>50</v>
       </c>
@@ -1869,7 +1911,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:39">
       <c r="A61" s="3" t="s">
         <v>51</v>
       </c>
@@ -1897,8 +1939,14 @@
       <c r="J61" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="62" spans="1:29">
+      <c r="AE61" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39">
       <c r="A62" s="3" t="s">
         <v>52</v>
       </c>
@@ -1941,8 +1989,26 @@
       <c r="AC62" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="63" spans="1:29">
+      <c r="AE62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39">
       <c r="A63" s="3" t="s">
         <v>53</v>
       </c>
@@ -1989,7 +2055,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:39">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -2059,6 +2125,26 @@
         <f>T64/100*AA64</f>
         <v>2.3433810267572297</v>
       </c>
+      <c r="AF64">
+        <f>(AC64-$AE$65)^2</f>
+        <v>19.678802050234719</v>
+      </c>
+      <c r="AJ64">
+        <f>AVERAGE(AA64:AA66)</f>
+        <v>19.501934167635643</v>
+      </c>
+      <c r="AK64">
+        <f>(AA64-$AJ$64)^2</f>
+        <v>29.666231645866418</v>
+      </c>
+      <c r="AL64">
+        <f>AVERAGE(AK64:AK66)</f>
+        <v>15.762121643290705</v>
+      </c>
+      <c r="AM64">
+        <f>SQRT(AL64)</f>
+        <v>3.970153856375179</v>
+      </c>
     </row>
     <row r="65" spans="1:43">
       <c r="A65" s="3" t="s">
@@ -2104,7 +2190,7 @@
         <v>0.51670002937316895</v>
       </c>
       <c r="R65">
-        <f t="shared" ref="R65:R69" si="5">0.5363*K65+0.4313</f>
+        <f t="shared" ref="R65:R69" si="6">0.5363*K65+0.4313</f>
         <v>0.71768418900370601</v>
       </c>
       <c r="T65" s="4">
@@ -2112,20 +2198,40 @@
         <v>35.884209450185303</v>
       </c>
       <c r="W65">
-        <f t="shared" ref="W65:W69" si="6">AQ75/T65</f>
+        <f t="shared" ref="W65:W69" si="7">AQ75/T65</f>
         <v>60.778822591248073</v>
       </c>
       <c r="Y65">
-        <f t="shared" ref="Y65:Y66" si="7">W68/W65</f>
+        <f t="shared" ref="Y65:Y66" si="8">W68/W65</f>
         <v>6.4110254644647551</v>
       </c>
       <c r="AA65">
-        <f t="shared" ref="AA65:AA66" si="8">100/Y65</f>
+        <f t="shared" ref="AA65:AA66" si="9">100/Y65</f>
         <v>15.598128654188526</v>
       </c>
       <c r="AC65">
-        <f t="shared" ref="AC65:AC66" si="9">T65/100*AA65</f>
+        <f t="shared" ref="AC65:AC66" si="10">T65/100*AA65</f>
         <v>5.5972651565783806</v>
+      </c>
+      <c r="AE65">
+        <f>(AC64+AC65+AC66)/3</f>
+        <v>6.7794606079003268</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" ref="AF65:AF66" si="11">(AC65-$AE$65)^2</f>
+        <v>1.3975860851263</v>
+      </c>
+      <c r="AG65">
+        <f>(AF64+AF65+AF66)/3</f>
+        <v>17.547134158593703</v>
+      </c>
+      <c r="AH65">
+        <f>SQRT(AG65)</f>
+        <v>4.1889299538896214</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" ref="AK65:AK66" si="12">(AA65-$AJ$64)^2</f>
+        <v>15.239697486820102</v>
       </c>
     </row>
     <row r="66" spans="1:43">
@@ -2172,7 +2278,7 @@
         <v>0.46320000290870667</v>
       </c>
       <c r="R66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.69033290549814708</v>
       </c>
       <c r="T66">
@@ -2180,20 +2286,28 @@
         <v>69.033290549814708</v>
       </c>
       <c r="W66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.717536885582039</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5682176610583261</v>
       </c>
       <c r="AA66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.959068069367362</v>
       </c>
       <c r="AC66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.39773564036537</v>
+      </c>
+      <c r="AF66">
+        <f t="shared" si="11"/>
+        <v>31.565014340420088</v>
+      </c>
+      <c r="AK66">
+        <f t="shared" si="12"/>
+        <v>2.3804357971855881</v>
       </c>
     </row>
     <row r="67" spans="1:43">
@@ -2240,7 +2354,7 @@
         <v>1.0032000541687012</v>
       </c>
       <c r="R67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98422530971765521</v>
       </c>
       <c r="T67">
@@ -2248,7 +2362,7 @@
         <v>9.8422530971765525</v>
       </c>
       <c r="W67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3788.9698254861946</v>
       </c>
     </row>
@@ -2296,7 +2410,7 @@
         <v>0.56529998779296875</v>
       </c>
       <c r="R68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.73404133619070056</v>
       </c>
       <c r="T68" s="4">
@@ -2304,7 +2418,7 @@
         <v>28.224998712539673</v>
       </c>
       <c r="W68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>389.65457933267714</v>
       </c>
     </row>
@@ -2352,7 +2466,7 @@
         <v>0.42840000987052917</v>
       </c>
       <c r="R69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67199143869578837</v>
       </c>
       <c r="T69">
@@ -2360,7 +2474,7 @@
         <v>67.199143869578833</v>
       </c>
       <c r="W69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>81.950448813575264</v>
       </c>
     </row>
@@ -2800,7 +2914,7 @@
         <v>87</v>
       </c>
       <c r="AQ75">
-        <f t="shared" ref="AQ75:AQ79" si="10">MAX(K75:AO75)</f>
+        <f t="shared" ref="AQ75:AQ79" si="13">MAX(K75:AO75)</f>
         <v>2181</v>
       </c>
     </row>
@@ -2923,7 +3037,7 @@
         <v>41</v>
       </c>
       <c r="AQ76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1016</v>
       </c>
     </row>
@@ -3046,7 +3160,7 @@
         <v>1485</v>
       </c>
       <c r="AQ77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>37292</v>
       </c>
     </row>
@@ -3169,7 +3283,7 @@
         <v>403</v>
       </c>
       <c r="AQ78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10998</v>
       </c>
     </row>
@@ -3292,7 +3406,7 @@
         <v>198</v>
       </c>
       <c r="AQ79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5507</v>
       </c>
     </row>
